--- a/styled_tender_export.xlsx
+++ b/styled_tender_export.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>BORDER ROAD ORGANISATION – Exported on 2025-05-20 16:25</t>
+          <t>BORDER ROAD ORGANISATION – Exported on 2025-05-20 17:56</t>
         </is>
       </c>
     </row>
@@ -559,27 +559,27 @@
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
+          <t>Mse</t>
+        </is>
+      </c>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
           <t>Ministry</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Branch</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>Mse</t>
-        </is>
-      </c>
       <c r="P2" s="4" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>Link Href</t>
         </is>
       </c>
       <c r="Q2" s="4" t="inlineStr">
@@ -594,24 +594,26 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>GEM/2025/B/6183004</t>
+          <t>GEM/2025/B/6185022</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Custom Bid for Services - REPAIR OR CALIBRATION OF FIP ASSY SRL NO 91732774 AND 03 NOS INJECTORS IN</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr"/>
+          <t>101521460500 Rope Wire,931590043900 Air Cleaner Filter Pre,931590044000 Air Cleaner Filter Sec,9315</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>95</v>
+      </c>
       <c r="E3" s="5" t="n">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="H3" s="7">
@@ -622,27 +624,39 @@
       <c r="J3" s="6" t="inlineStr"/>
       <c r="K3" s="6" t="inlineStr">
         <is>
-          <t>["West Kameng"]</t>
+          <t>["Budgam"]</t>
         </is>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M3" s="6" t="inlineStr">
+        <is>
           <t>Ministry of Defence</t>
         </is>
       </c>
-      <c r="M3" s="6" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>BORDER ROAD ORGANISATION</t>
         </is>
       </c>
-      <c r="N3" s="6" t="inlineStr"/>
-      <c r="O3" s="6" t="inlineStr"/>
+      <c r="O3" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P3" s="6" t="inlineStr">
         <is>
-          <t>https://bidplus.gem.gov.in/showbidDocument/7787315</t>
-        </is>
-      </c>
-      <c r="Q3" s="6" t="inlineStr"/>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7789499.pdf</t>
+        </is>
+      </c>
+      <c r="Q3" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7789499</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="120" customHeight="1">
       <c r="A4" s="5" t="n">
@@ -650,24 +664,26 @@
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>GEM/2025/B/6182997</t>
+          <t>GEM/2025/B/6179371</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
         <is>
-          <t>Custom Bid for Services - REPAIR OF COMMON RAIL IN RESPECT OF L T WHEEL LOADER</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr"/>
+          <t>Servo Pride Supreme 15W40,Servo Ultra KB 30,Servo Gear Super 80W90,Servo Gear Super 85W 140,Servo T</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>18212</v>
+      </c>
       <c r="E4" s="5" t="n">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="H4" s="7">
@@ -678,27 +694,39 @@
       <c r="J4" s="6" t="inlineStr"/>
       <c r="K4" s="6" t="inlineStr">
         <is>
-          <t>["Kullu"]</t>
+          <t>["Leh"]</t>
         </is>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="inlineStr">
+        <is>
           <t>Ministry of Defence</t>
         </is>
       </c>
-      <c r="M4" s="6" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>BORDER ROAD ORGANISATION</t>
         </is>
       </c>
-      <c r="N4" s="6" t="inlineStr"/>
-      <c r="O4" s="6" t="inlineStr"/>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P4" s="6" t="inlineStr">
         <is>
-          <t>https://bidplus.gem.gov.in/showbidDocument/7787307</t>
-        </is>
-      </c>
-      <c r="Q4" s="6" t="inlineStr"/>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7783348.pdf</t>
+        </is>
+      </c>
+      <c r="Q4" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7783348</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="120" customHeight="1">
       <c r="A5" s="5" t="n">
@@ -706,24 +734,26 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>GEM/2025/B/6183268</t>
+          <t>GEM/2025/B/6185144</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>Custom Bid for Services - REPAIR OF CR PUMP AND INJECTORS IN RESPECT OF MAHINDRA BOLERO CAMPER</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr"/>
+          <t>A4004770301 Fuel Filter Element,A4004760069 Water Separator,A4000900852 Fuel Filter,A4004660204 Oil</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="E5" s="5" t="n">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
-          <t>5:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="H5" s="7">
@@ -734,27 +764,39 @@
       <c r="J5" s="6" t="inlineStr"/>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>["Kullu"]</t>
+          <t>["Budgam"]</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="inlineStr">
+        <is>
           <t>Ministry of Defence</t>
         </is>
       </c>
-      <c r="M5" s="6" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>BORDER ROAD ORGANISATION</t>
         </is>
       </c>
-      <c r="N5" s="6" t="inlineStr"/>
-      <c r="O5" s="6" t="inlineStr"/>
+      <c r="O5" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P5" s="6" t="inlineStr">
         <is>
-          <t>https://bidplus.gem.gov.in/showbidDocument/7787593</t>
-        </is>
-      </c>
-      <c r="Q5" s="6" t="inlineStr"/>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7789631.pdf</t>
+        </is>
+      </c>
+      <c r="Q5" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7789631</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="120" customHeight="1">
       <c r="A6" s="5" t="n">
@@ -762,15 +804,17 @@
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>GEM/2025/B/6185022</t>
+          <t>GEM/2025/B/6184007</t>
         </is>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>101521460500 Rope Wire,931590043900 Air Cleaner Filter Pre,931590044000 Air Cleaner Filter Sec,9315</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr"/>
+          <t xml:space="preserve">Electric Wire copper 1 pt 5 Sqmm Single Core 90 Mtr Roll,Electric Wire copper 2.5 Sqmm Single Core </t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>1521</v>
+      </c>
       <c r="E6" s="5" t="n">
         <v>45777</v>
       </c>
@@ -779,7 +823,7 @@
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>9:00 AM</t>
         </is>
       </c>
       <c r="H6" s="7">
@@ -790,27 +834,39 @@
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="inlineStr">
         <is>
-          <t>["Budgam"]</t>
+          <t>["Lohit"]</t>
         </is>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="inlineStr">
+        <is>
           <t>Ministry of Defence</t>
         </is>
       </c>
-      <c r="M6" s="6" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>BORDER ROAD ORGANISATION</t>
         </is>
       </c>
-      <c r="N6" s="6" t="inlineStr"/>
-      <c r="O6" s="6" t="inlineStr"/>
+      <c r="O6" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P6" s="6" t="inlineStr">
         <is>
-          <t>https://bidplus.gem.gov.in/showbidDocument/7789499</t>
-        </is>
-      </c>
-      <c r="Q6" s="6" t="inlineStr"/>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7788403.pdf</t>
+        </is>
+      </c>
+      <c r="Q6" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7788403</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="120" customHeight="1">
       <c r="A7" s="5" t="n">
@@ -818,15 +874,17 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>GEM/2025/B/6179371</t>
+          <t>GEM/2025/B/6148218</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>Servo Pride Supreme 15W40,Servo Ultra KB 30,Servo Gear Super 80W90,Servo Gear Super 85W 140,Servo T</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr"/>
+          <t>G69006001, 2cyl Crdi W H Egr and Glow Plug Eng,E11954003000, O Ring dia 54.5,E251105014901, Cps Cra</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>232</v>
+      </c>
       <c r="E7" s="5" t="n">
         <v>45777</v>
       </c>
@@ -846,27 +904,39 @@
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="inlineStr">
         <is>
-          <t>["Leh"]</t>
+          <t>["Ananthnag"]</t>
         </is>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="inlineStr">
+        <is>
           <t>Ministry of Defence</t>
         </is>
       </c>
-      <c r="M7" s="6" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>BORDER ROAD ORGANISATION</t>
         </is>
       </c>
-      <c r="N7" s="6" t="inlineStr"/>
-      <c r="O7" s="6" t="inlineStr"/>
+      <c r="O7" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P7" s="6" t="inlineStr">
         <is>
-          <t>https://bidplus.gem.gov.in/showbidDocument/7783348</t>
-        </is>
-      </c>
-      <c r="Q7" s="6" t="inlineStr"/>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7748581.pdf</t>
+        </is>
+      </c>
+      <c r="Q7" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7748581</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="120" customHeight="1">
       <c r="A8" s="5" t="n">
@@ -874,15 +944,17 @@
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>GEM/2025/B/6184007</t>
+          <t>GEM/2025/B/6144229</t>
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Electric Wire copper 1 pt 5 Sqmm Single Core 90 Mtr Roll,Electric Wire copper 2.5 Sqmm Single Core </t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr"/>
+          <t>0928326016, Tube Oil Seal,928340027, Oil Seal,0928348007, Oil Seal,0928350002, Front Oil Seal Small</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>308</v>
+      </c>
       <c r="E8" s="5" t="n">
         <v>45777</v>
       </c>
@@ -891,7 +963,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>9:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="H8" s="7">
@@ -902,27 +974,39 @@
       <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="inlineStr">
         <is>
-          <t>["Lohit"]</t>
+          <t>["Ananthnag"]</t>
         </is>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="inlineStr">
+        <is>
           <t>Ministry of Defence</t>
         </is>
       </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="N8" s="6" t="inlineStr">
         <is>
           <t>BORDER ROAD ORGANISATION</t>
         </is>
       </c>
-      <c r="N8" s="6" t="inlineStr"/>
-      <c r="O8" s="6" t="inlineStr"/>
+      <c r="O8" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P8" s="6" t="inlineStr">
         <is>
-          <t>https://bidplus.gem.gov.in/showbidDocument/7788403</t>
-        </is>
-      </c>
-      <c r="Q8" s="6" t="inlineStr"/>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7744227.pdf</t>
+        </is>
+      </c>
+      <c r="Q8" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7744227</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="120" customHeight="1">
       <c r="A9" s="5" t="n">
@@ -930,24 +1014,26 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>GEM/2025/B/6148218</t>
+          <t>GEM/2025/B/6175636</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>G69006001, 2cyl Crdi W H Egr and Glow Plug Eng,E11954003000, O Ring dia 54.5,E251105014901, Cps Cra</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr"/>
+          <t>26215175 or 26218362 REGULATOR WITH BUSH BOX ASSY,26211364 BALL BEARING SRE,26220249 DE BEARING ASS</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>12</v>
+      </c>
       <c r="E9" s="5" t="n">
-        <v>45777</v>
+        <v>45778</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="H9" s="7">
@@ -958,27 +1044,39 @@
       <c r="J9" s="6" t="inlineStr"/>
       <c r="K9" s="6" t="inlineStr">
         <is>
-          <t>["Ananthnag"]</t>
+          <t>["Gurdaspur"]</t>
         </is>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="inlineStr">
+        <is>
           <t>Ministry of Defence</t>
         </is>
       </c>
-      <c r="M9" s="6" t="inlineStr">
+      <c r="N9" s="6" t="inlineStr">
         <is>
           <t>BORDER ROAD ORGANISATION</t>
         </is>
       </c>
-      <c r="N9" s="6" t="inlineStr"/>
-      <c r="O9" s="6" t="inlineStr"/>
+      <c r="O9" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P9" s="6" t="inlineStr">
         <is>
-          <t>https://bidplus.gem.gov.in/showbidDocument/7748581</t>
-        </is>
-      </c>
-      <c r="Q9" s="6" t="inlineStr"/>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7779067.pdf</t>
+        </is>
+      </c>
+      <c r="Q9" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7779067</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="120" customHeight="1">
       <c r="A10" s="5" t="n">
@@ -986,24 +1084,26 @@
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>GEM/2025/B/6144229</t>
+          <t>GEM/2025/B/6188330</t>
         </is>
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>0928326016, Tube Oil Seal,928340027, Oil Seal,0928348007, Oil Seal,0928350002, Front Oil Seal Small</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr"/>
+          <t>R3SN0I177 Swing Jaw 21 Teeth,R3SN0I176 Fixed Jaw Plate 22 Teeth,500BW00MF Main Conveyor Belt 500BW0</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>9</v>
+      </c>
       <c r="E10" s="5" t="n">
-        <v>45777</v>
+        <v>45778</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="H10" s="7">
@@ -1014,27 +1114,179 @@
       <c r="J10" s="6" t="inlineStr"/>
       <c r="K10" s="6" t="inlineStr">
         <is>
-          <t>["Ananthnag"]</t>
+          <t>["Tawang"]</t>
         </is>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="inlineStr">
+        <is>
           <t>Ministry of Defence</t>
         </is>
       </c>
-      <c r="M10" s="6" t="inlineStr">
+      <c r="N10" s="6" t="inlineStr">
         <is>
           <t>BORDER ROAD ORGANISATION</t>
         </is>
       </c>
-      <c r="N10" s="6" t="inlineStr"/>
-      <c r="O10" s="6" t="inlineStr"/>
+      <c r="O10" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P10" s="6" t="inlineStr">
         <is>
-          <t>https://bidplus.gem.gov.in/showbidDocument/7744227</t>
-        </is>
-      </c>
-      <c r="Q10" s="6" t="inlineStr"/>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7793150.pdf</t>
+        </is>
+      </c>
+      <c r="Q10" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7793150</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="120" customHeight="1">
+      <c r="A11" s="5" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>GEM/2025/B/6183566</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crowbar 29 mm dia,Chisel Stone Breaking,Spade 1.4 Kgs with wooden handle,Hammer 05 Kgs with wooden </t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>45799</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="H11" s="7">
+        <f>IF((INDIRECT("F"&amp;ROW())+INDIRECT("G"&amp;ROW()))-NOW() &lt;= 0, "CLOSED", INT((INDIRECT("F"&amp;ROW())+INDIRECT("G"&amp;ROW()))-NOW()) &amp; " days")</f>
+        <v/>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr">
+        <is>
+          <t>["Dehradun"]</t>
+        </is>
+      </c>
+      <c r="L11" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="inlineStr">
+        <is>
+          <t>Ministry of Defence</t>
+        </is>
+      </c>
+      <c r="N11" s="6" t="inlineStr">
+        <is>
+          <t>BORDER ROAD ORGANISATION</t>
+        </is>
+      </c>
+      <c r="O11" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P11" s="6" t="inlineStr">
+        <is>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7787927.pdf</t>
+        </is>
+      </c>
+      <c r="Q11" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7787927</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="120" customHeight="1">
+      <c r="A12" s="5" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>GEM/2025/B/6183437</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>Grinder Wheel Silicon carbide,Soldering Lead,LT wire 03 mm 25 Mtr per Roll,LT wire 04 mm,LT wire 06</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>45778</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>45799</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>4:00 PM</t>
+        </is>
+      </c>
+      <c r="H12" s="7">
+        <f>IF((INDIRECT("F"&amp;ROW())+INDIRECT("G"&amp;ROW()))-NOW() &lt;= 0, "CLOSED", INT((INDIRECT("F"&amp;ROW())+INDIRECT("G"&amp;ROW()))-NOW()) &amp; " days")</f>
+        <v/>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr">
+        <is>
+          <t>["Dehradun"]</t>
+        </is>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="inlineStr">
+        <is>
+          <t>Ministry of Defence</t>
+        </is>
+      </c>
+      <c r="N12" s="6" t="inlineStr">
+        <is>
+          <t>BORDER ROAD ORGANISATION</t>
+        </is>
+      </c>
+      <c r="O12" s="6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P12" s="6" t="inlineStr">
+        <is>
+          <t>C:\vs_code\TenderHunter2.1.3\download_pdf\GeM-Bidding-7787786.pdf</t>
+        </is>
+      </c>
+      <c r="Q12" s="6" t="inlineStr">
+        <is>
+          <t>https://bidplus.gem.gov.in/showbidDocument/7787786</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:Q2"/>
